--- a/data/abcd.xlsx
+++ b/data/abcd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biswajit\Appium-workspace\MobileAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E848BB-736F-4DBD-9B1A-B0FA9A904204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8242179E-39CA-4804-B0B5-E7C0A69B8000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="960" windowWidth="17940" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="23">
   <si>
     <t>a</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>specialCharacter</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +447,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -448,10 +460,22 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -462,10 +486,22 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -476,10 +512,22 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -490,10 +538,22 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -504,10 +564,22 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -516,6 +588,486 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
